--- a/Doc/benchmarks/Benchmark.xlsx
+++ b/Doc/benchmarks/Benchmark.xlsx
@@ -15,14 +15,15 @@
     <sheet name="Laptop" sheetId="1" r:id="rId1"/>
     <sheet name="RPi3" sheetId="2" r:id="rId2"/>
     <sheet name="Omega2" sheetId="3" r:id="rId3"/>
-    <sheet name="Resultados" sheetId="4" r:id="rId4"/>
+    <sheet name="Net" sheetId="5" r:id="rId4"/>
+    <sheet name="Resultados" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Test nº</t>
   </si>
@@ -83,13 +84,78 @@
   <si>
     <t>Laptop over Omega2</t>
   </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>APDU Commands</t>
+  </si>
+  <si>
+    <t>APDU Response</t>
+  </si>
+  <si>
+    <t>2bytes for length</t>
+  </si>
+  <si>
+    <t>Init IoT smartcard</t>
+  </si>
+  <si>
+    <t>First issuance protocol step for the user</t>
+  </si>
+  <si>
+    <t>Second issuance protocol step (first step for the user)</t>
+  </si>
+  <si>
+    <t>Third issuance protocol step (second step for the user)</t>
+  </si>
+  <si>
+    <t>Create presentation UI return</t>
+  </si>
+  <si>
+    <t>Create presentation token</t>
+  </si>
+  <si>
+    <t>/initIoTsmartcard/</t>
+  </si>
+  <si>
+    <t>/issuanceProtocolStep/</t>
+  </si>
+  <si>
+    <t>/issuanceProtocolStepUi/</t>
+  </si>
+  <si>
+    <t>/createPresentationToken/</t>
+  </si>
+  <si>
+    <t>/createPresentationTokenUi/</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Retardo red O2-RPi3</t>
+  </si>
+  <si>
+    <t>ms per byte</t>
+  </si>
+  <si>
+    <t>Bps</t>
+  </si>
+  <si>
+    <t>spB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +234,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -204,6 +274,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Execution times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -367,7 +467,7 @@
               </c:extLst>
               <c:f>(Resultados!$G$2,Resultados!$I$2:$J$2,Resultados!$L$2:$N$2)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>131.738517</c:v>
@@ -523,7 +623,7 @@
               </c:extLst>
               <c:f>(Resultados!$G$3,Resultados!$I$3:$J$3,Resultados!$L$3:$N$3)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2154.8351681999998</c:v>
@@ -581,7 +681,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0833333333333333E-3"/>
+                  <c:x val="2.0833132054811792E-3"/>
                   <c:y val="-2.9055690072639286E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -701,7 +801,7 @@
               </c:extLst>
               <c:f>(Resultados!$G$4,Resultados!$I$4:$J$4,Resultados!$L$4:$N$4)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19191.065702599997</c:v>
@@ -816,7 +916,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -942,6 +1042,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Execution times (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1053,7 +1183,7 @@
             <c:numRef>
               <c:f>Resultados!$B$2:$N$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>139.22744940000001</c:v>
@@ -1178,7 +1308,7 @@
             <c:numRef>
               <c:f>Resultados!$B$3:$N$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1395.1235994000001</c:v>
@@ -1303,7 +1433,7 @@
             <c:numRef>
               <c:f>Resultados!$B$4:$N$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1412.2921615999999</c:v>
@@ -1437,7 +1567,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4247,13 +4377,2360 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>8.8680000000000003</v>
+      </c>
+      <c r="B1" s="6">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="C1" s="6">
+        <v>8.49</v>
+      </c>
+      <c r="D1" s="6">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="E1" s="6">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="F1" s="6">
+        <v>7.9080000000000004</v>
+      </c>
+      <c r="G1" s="6">
+        <v>9.2629999999999999</v>
+      </c>
+      <c r="H1" s="6">
+        <v>9.3680000000000003</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8.2439999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <f>AVERAGE(A1:I1)</f>
+        <v>8.5111111111111111</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="C5">
+        <f>A7/A3</f>
+        <v>71201.044386422975</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="C6">
+        <f>A3/A7</f>
+        <v>1.4044737807114045E-5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>1000*C6</f>
+        <v>1.4044737807114046E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>606000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>83</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>103*2</f>
+        <v>206</v>
+      </c>
+      <c r="B14">
+        <v>4355</v>
+      </c>
+      <c r="C14">
+        <f>103*2</f>
+        <v>206</v>
+      </c>
+      <c r="D14">
+        <v>1272</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>83</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>SUM(D20:E49)</f>
+        <v>1109</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>83</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>B21*E6</f>
+        <v>15.575614228089476</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>83</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>83</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>83</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>83</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>31</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>49</v>
+      </c>
+      <c r="N39">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>54</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>61</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>57</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>38</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>85</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>39</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>40</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>41</v>
+      </c>
+      <c r="M48">
+        <v>11</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <f>SUM(D50:E50)</f>
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <f>F50*E6</f>
+        <v>0.46347634763476353</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50">
+        <v>43</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <v>88</v>
+      </c>
+      <c r="L51">
+        <v>44</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>SUM(D51:E74)</f>
+        <v>1623</v>
+      </c>
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>56</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>45</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>B52*E6</f>
+        <v>22.794609460946095</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>63</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>46</v>
+      </c>
+      <c r="M53">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>47</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>48</v>
+      </c>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>49</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>38</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>88</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>49</v>
+      </c>
+      <c r="N57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>37</v>
+      </c>
+      <c r="L58">
+        <v>51</v>
+      </c>
+      <c r="M58">
+        <v>44</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>88</v>
+      </c>
+      <c r="L59">
+        <v>52</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+      <c r="L60">
+        <v>53</v>
+      </c>
+      <c r="M60">
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>88</v>
+      </c>
+      <c r="L61">
+        <v>54</v>
+      </c>
+      <c r="M61">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>88</v>
+      </c>
+      <c r="L62">
+        <v>55</v>
+      </c>
+      <c r="M62">
+        <v>11</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>88</v>
+      </c>
+      <c r="L63">
+        <v>56</v>
+      </c>
+      <c r="M63">
+        <v>83</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>57</v>
+      </c>
+      <c r="M64">
+        <v>59</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>88</v>
+      </c>
+      <c r="L65">
+        <v>58</v>
+      </c>
+      <c r="M65">
+        <v>83</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>47</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>59</v>
+      </c>
+      <c r="M66">
+        <v>59</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>60</v>
+      </c>
+      <c r="M67">
+        <v>83</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>49</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>88</v>
+      </c>
+      <c r="L68">
+        <v>61</v>
+      </c>
+      <c r="M68">
+        <v>59</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>51</v>
+      </c>
+      <c r="E69">
+        <v>88</v>
+      </c>
+      <c r="L69">
+        <v>62</v>
+      </c>
+      <c r="M69">
+        <v>83</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>51</v>
+      </c>
+      <c r="D70">
+        <v>46</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>63</v>
+      </c>
+      <c r="M70">
+        <v>59</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>37</v>
+      </c>
+      <c r="L71">
+        <v>64</v>
+      </c>
+      <c r="M71">
+        <v>83</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="L72">
+        <v>65</v>
+      </c>
+      <c r="M72">
+        <v>59</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>88</v>
+      </c>
+      <c r="L73">
+        <v>66</v>
+      </c>
+      <c r="M73">
+        <v>83</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>67</v>
+      </c>
+      <c r="M74">
+        <v>59</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75">
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <v>85</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>68</v>
+      </c>
+      <c r="M75">
+        <v>83</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f>SUM(D75:E94)</f>
+        <v>1541</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="D76">
+        <v>61</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>69</v>
+      </c>
+      <c r="M76">
+        <v>59</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <f>B76*E6</f>
+        <v>21.642940960762743</v>
+      </c>
+      <c r="C77">
+        <v>58</v>
+      </c>
+      <c r="D77">
+        <v>85</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>70</v>
+      </c>
+      <c r="M77">
+        <v>83</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>61</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>71</v>
+      </c>
+      <c r="M78">
+        <v>59</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>85</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>72</v>
+      </c>
+      <c r="M79">
+        <v>83</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>61</v>
+      </c>
+      <c r="D80">
+        <v>61</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>73</v>
+      </c>
+      <c r="M80">
+        <v>59</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>74</v>
+      </c>
+      <c r="M81">
+        <v>83</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>63</v>
+      </c>
+      <c r="D82">
+        <v>61</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>75</v>
+      </c>
+      <c r="M82">
+        <v>60</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <v>85</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>76</v>
+      </c>
+      <c r="M83">
+        <v>83</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>65</v>
+      </c>
+      <c r="D84">
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>77</v>
+      </c>
+      <c r="M84">
+        <v>59</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>78</v>
+      </c>
+      <c r="M85">
+        <v>83</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>67</v>
+      </c>
+      <c r="D86">
+        <v>61</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>79</v>
+      </c>
+      <c r="M86">
+        <v>59</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>80</v>
+      </c>
+      <c r="M87">
+        <v>83</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>69</v>
+      </c>
+      <c r="D88">
+        <v>61</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>81</v>
+      </c>
+      <c r="M88">
+        <v>59</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>70</v>
+      </c>
+      <c r="D89">
+        <v>85</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>82</v>
+      </c>
+      <c r="M89">
+        <v>83</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>71</v>
+      </c>
+      <c r="D90">
+        <v>61</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>83</v>
+      </c>
+      <c r="M90">
+        <v>59</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>72</v>
+      </c>
+      <c r="D91">
+        <v>85</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>84</v>
+      </c>
+      <c r="M91">
+        <v>83</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>73</v>
+      </c>
+      <c r="D92">
+        <v>61</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>85</v>
+      </c>
+      <c r="M92">
+        <v>59</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>74</v>
+      </c>
+      <c r="D93">
+        <v>85</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>86</v>
+      </c>
+      <c r="M93">
+        <v>83</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>62</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>87</v>
+      </c>
+      <c r="M94">
+        <v>59</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>76</v>
+      </c>
+      <c r="D95">
+        <v>85</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>88</v>
+      </c>
+      <c r="M95">
+        <v>83</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <f>SUM(D95:E113)</f>
+        <v>1475</v>
+      </c>
+      <c r="C96">
+        <v>77</v>
+      </c>
+      <c r="D96">
+        <v>61</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>89</v>
+      </c>
+      <c r="M96">
+        <v>59</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <f>B96*E6</f>
+        <v>20.715988265493216</v>
+      </c>
+      <c r="C97">
+        <v>78</v>
+      </c>
+      <c r="D97">
+        <v>85</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>90</v>
+      </c>
+      <c r="M97">
+        <v>83</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98">
+        <v>79</v>
+      </c>
+      <c r="D98">
+        <v>61</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>91</v>
+      </c>
+      <c r="M98">
+        <v>59</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>85</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>92</v>
+      </c>
+      <c r="M99">
+        <v>83</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>81</v>
+      </c>
+      <c r="D100">
+        <v>61</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>93</v>
+      </c>
+      <c r="M100">
+        <v>59</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>82</v>
+      </c>
+      <c r="D101">
+        <v>85</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>94</v>
+      </c>
+      <c r="M101">
+        <v>83</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>83</v>
+      </c>
+      <c r="D102">
+        <v>61</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>95</v>
+      </c>
+      <c r="M102">
+        <v>60</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>84</v>
+      </c>
+      <c r="D103">
+        <v>85</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>96</v>
+      </c>
+      <c r="M103">
+        <v>11</v>
+      </c>
+      <c r="N103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>85</v>
+      </c>
+      <c r="D104">
+        <v>61</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>97</v>
+      </c>
+      <c r="M104">
+        <v>10</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>86</v>
+      </c>
+      <c r="D105">
+        <v>85</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>98</v>
+      </c>
+      <c r="M105">
+        <v>11</v>
+      </c>
+      <c r="N105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>87</v>
+      </c>
+      <c r="D106">
+        <v>61</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="L106">
+        <v>99</v>
+      </c>
+      <c r="M106">
+        <v>14</v>
+      </c>
+      <c r="N106">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>88</v>
+      </c>
+      <c r="D107">
+        <v>85</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107">
+        <v>44</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>89</v>
+      </c>
+      <c r="D108">
+        <v>61</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>101</v>
+      </c>
+      <c r="M108">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>90</v>
+      </c>
+      <c r="D109">
+        <v>85</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>102</v>
+      </c>
+      <c r="M109">
+        <v>11</v>
+      </c>
+      <c r="N109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>91</v>
+      </c>
+      <c r="D110">
+        <v>61</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>103</v>
+      </c>
+      <c r="M110">
+        <v>14</v>
+      </c>
+      <c r="N110">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>92</v>
+      </c>
+      <c r="D111">
+        <v>85</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>93</v>
+      </c>
+      <c r="D112">
+        <v>61</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>94</v>
+      </c>
+      <c r="D113">
+        <v>85</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>95</v>
+      </c>
+      <c r="D114">
+        <v>62</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <f>SUM(D114:E122)</f>
+        <v>464</v>
+      </c>
+      <c r="C115">
+        <v>96</v>
+      </c>
+      <c r="D115">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <f>B115*E6</f>
+        <v>6.5167583425009168</v>
+      </c>
+      <c r="C116">
+        <v>97</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>98</v>
+      </c>
+      <c r="D117">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>99</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="D119">
+        <v>46</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>101</v>
+      </c>
+      <c r="D120">
+        <v>15</v>
+      </c>
+      <c r="E120">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>102</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>103</v>
+      </c>
+      <c r="D122">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -4300,43 +6777,43 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>139.22744940000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>222.07548019999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>5.0480727999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>5.6186369999999997</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>5.7513183999999997</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>131.738517</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>1.7811400000000002E-2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>298.78947260000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>377.83841339999998</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>1.518E-3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>916.31667099999993</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>209.7799436</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>301.66026819999996</v>
       </c>
     </row>
@@ -4344,43 +6821,43 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1395.1235994000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>2278.8520548000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>35.380456799999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>33.761543399999994</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>56.101316799999992</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>2154.8351681999998</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>0.12953000000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>2327.1840154000001</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>6905.9254949999995</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>1.45726E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>2150.8993295999999</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>1993.1077575999998</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>12505.7997404</v>
       </c>
     </row>
@@ -4388,43 +6865,43 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1412.2921615999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>2244.5370149999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>38.613114399999994</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>33.585100799999992</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>44.773204999999997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>19191.065702599997</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.11161360000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>2818.6435031999995</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>19307.442511999998</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>1.1812399999999999E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>14354.2365376</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>14836.328543199999</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>18003.754793599997</v>
       </c>
     </row>
@@ -4432,55 +6909,55 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <f>B3/B2</f>
         <v>10.020463675893497</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:N5" si="0">C3/C2</f>
         <v>10.261610389168936</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>7.0087057381581337</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>6.0088493704078045</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>9.7545141649608542</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>16.35691077500136</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>7.2723087460839686</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>7.7887082002901868</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>18.277457373528129</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>9.5998682476943351</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>2.3473318751831376</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <f t="shared" si="0"/>
         <v>9.5009452447960321</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <f t="shared" si="0"/>
         <v>41.456569057044952</v>
       </c>
@@ -4489,55 +6966,55 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <f>B4/B3</f>
         <v>1.0123061227029515</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" ref="C6:N6" si="1">C4/C3</f>
         <v>0.98494196245529775</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>1.0913684528798959</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>0.99477385859083678</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>0.79807761303741809</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>8.9060481218296097</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>0.86168146375357058</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>1.2111820485822331</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f t="shared" si="1"/>
         <v>2.7957791502353877</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f t="shared" si="1"/>
         <v>0.81058973690350378</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>6.6735975691942029</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <f t="shared" si="1"/>
         <v>7.4438165656758875</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <f t="shared" si="1"/>
         <v>1.4396324239415772</v>
       </c>
@@ -4546,57 +7023,130 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <f>B4/B2</f>
         <v>10.143776731429512</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" ref="C7:N7" si="2">C4/C2</f>
         <v>10.107090674659723</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>7.6490803381440919</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
         <v>5.977446273891692</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
         <v>7.7848593811116418</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>145.67543448663534</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>6.2664136451935279</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>9.4335435538367065</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>51.099734244225999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
         <v>7.7815546772068505</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>15.665148296314257</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
         <v>70.723293602792253</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
         <v>59.682220999895009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>15.575614228089476</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>0.46347634763476353</v>
+      </c>
+      <c r="J9" s="5">
+        <v>22.794609460946095</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>21.642940960762743</v>
+      </c>
+      <c r="M9" s="5">
+        <v>20.715988265493216</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6.5167583425009168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <f>G4-G9</f>
+        <v>19175.490088371909</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <f t="shared" ref="H10:N10" si="3">I4-I9</f>
+        <v>2818.1800268523648</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>19284.647902539051</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
+        <v>14332.593596639237</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>14815.612554934507</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="3"/>
+        <v>17997.238035257495</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/benchmarks/Benchmark.xlsx
+++ b/Doc/benchmarks/Benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Laptop" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Omega2" sheetId="3" r:id="rId3"/>
     <sheet name="Net" sheetId="5" r:id="rId4"/>
     <sheet name="Resultados" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Test nº</t>
   </si>
@@ -147,6 +149,24 @@
   <si>
     <t>spB</t>
   </si>
+  <si>
+    <t>Laptop (ms)</t>
+  </si>
+  <si>
+    <t>RPi3 (ms)</t>
+  </si>
+  <si>
+    <t>Omega2 (ms)</t>
+  </si>
+  <si>
+    <t>Laptop (s)</t>
+  </si>
+  <si>
+    <t>RPi3 (s)</t>
+  </si>
+  <si>
+    <t>Omega2 (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -154,8 +174,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -190,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,6 +233,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -225,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,8 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -916,7 +990,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1064,7 +1138,7 @@
               <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Execution times (ms)</a:t>
+              <a:t>User REST Service execution times (ms)</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES">
               <a:effectLst/>
@@ -1567,7 +1641,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1678,6 +1752,873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>User Service Setup (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>storeCredentialSpecification</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>storeSystemParameters</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>storeRevocationAuthorityParameters</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>storeInspectorPublicKey</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>storeIssuerParameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139.22744940000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.07548019999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0480727999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6186369999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7513183999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2888-4688-83EA-52A87B46A15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPi3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>storeCredentialSpecification</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>storeSystemParameters</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>storeRevocationAuthorityParameters</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>storeInspectorPublicKey</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>storeIssuerParameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1395.1235994000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.8520548000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.380456799999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.761543399999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.101316799999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2888-4688-83EA-52A87B46A15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omega2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>storeCredentialSpecification</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>storeSystemParameters</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>storeRevocationAuthorityParameters</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>storeInspectorPublicKey</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>storeIssuerParameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1412.2921615999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2244.5370149999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.613114399999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.585100799999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.773204999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2888-4688-83EA-52A87B46A15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="422943632"/>
+        <c:axId val="422941336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="422943632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422941336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422941336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422943632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>createSmartcard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Laptop (s)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RPi3 (s)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Omega2 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.131738517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1548351682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.1910657026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B915-4B28-9958-E693024C8088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="527265280"/>
+        <c:axId val="527257080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527265280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527257080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527257080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527265280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1758,6 +2699,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2759,6 +3780,1058 @@
       <a:ln>
         <a:noFill/>
       </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -2833,6 +4906,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20239549-6C32-4E8B-8EBE-8019EED46757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA6A7E5-4049-441D-A1E3-D311CAFF973C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4379,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6723,8 +8873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7128,7 +9278,7 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <f t="shared" ref="H10:N10" si="3">I4-I9</f>
+        <f t="shared" ref="I10:N10" si="3">I4-I9</f>
         <v>2818.1800268523648</v>
       </c>
       <c r="J10" s="5">
@@ -7153,4 +9303,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10">
+        <v>139.22744940000001</v>
+      </c>
+      <c r="C2" s="10">
+        <v>222.07548019999999</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5.0480727999999999</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5.6186369999999997</v>
+      </c>
+      <c r="F2" s="10">
+        <v>5.7513183999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1395.1235994000001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2278.8520548000001</v>
+      </c>
+      <c r="D3" s="10">
+        <v>35.380456799999997</v>
+      </c>
+      <c r="E3" s="10">
+        <v>33.761543399999994</v>
+      </c>
+      <c r="F3" s="10">
+        <v>56.101316799999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1412.2921615999999</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2244.5370149999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>38.613114399999994</v>
+      </c>
+      <c r="E4" s="12">
+        <v>33.585100799999992</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44.773204999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14">
+        <f>B3/B2</f>
+        <v>10.020463675893497</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:F5" si="0">C3/C2</f>
+        <v>10.261610389168936</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>7.0087057381581337</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>6.0088493704078045</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7545141649608542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.131738517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2.1548351682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="16">
+        <v>19.1910657026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14">
+        <f t="shared" ref="B5:B6" si="0">B3/B2</f>
+        <v>16.35691077500136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.9060481218296097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" ref="B7" si="1">B4/B2</f>
+        <v>145.67543448663537</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/benchmarks/Benchmark.xlsx
+++ b/Doc/benchmarks/Benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JL\Documents\GitHub\p2abc_iot_toolkit\Doc\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canov\Documents\GitHub\p2abc_iot_toolkit\Doc\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,13 +19,15 @@
     <sheet name="Resultados" sheetId="4" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
   <si>
     <t>Test nº</t>
   </si>
@@ -167,6 +169,24 @@
   <si>
     <t>Omega2 (s)</t>
   </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuanceProtocolStep </t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +197,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +221,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -255,6 +281,41 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -267,13 +328,116 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -288,7 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,17 +465,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -320,7 +515,279 @@
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,7 +835,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Execution times</a:t>
+              <a:t>Proving times</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
@@ -506,25 +973,13 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$1,Resultados!$I$1:$J$1,Resultados!$L$1:$N$1)</c:f>
+              <c:f>Resultados!$M$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>createSmartcard</c:v>
+                  <c:v>createPresentationToken</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>issuanceProtocolStepUi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>createPresentationToken</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>createPresentationTokenUi</c:v>
                 </c:pt>
               </c:strCache>
@@ -539,26 +994,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$2,Resultados!$I$2:$J$2,Resultados!$L$2:$N$2)</c:f>
+              <c:f>Resultados!$M$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>131.738517</c:v>
+                  <c:v>209.7799436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.78947260000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>377.83841339999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>916.31667099999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>209.7799436</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>301.66026819999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,25 +1105,13 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$1,Resultados!$I$1:$J$1,Resultados!$L$1:$N$1)</c:f>
+              <c:f>Resultados!$M$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>createSmartcard</c:v>
+                  <c:v>createPresentationToken</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>issuanceProtocolStepUi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>createPresentationToken</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>createPresentationTokenUi</c:v>
                 </c:pt>
               </c:strCache>
@@ -695,26 +1126,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$3,Resultados!$I$3:$J$3,Resultados!$L$3:$N$3)</c:f>
+              <c:f>Resultados!$M$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2154.8351681999998</c:v>
+                  <c:v>1993.1077575999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2327.1840154000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6905.9254949999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2150.8993295999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1993.1077575999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>12505.7997404</c:v>
                 </c:pt>
               </c:numCache>
@@ -751,28 +1170,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.0833132054811792E-3"/>
-                  <c:y val="-2.9055690072639286E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BCEA-4451-984E-3DEB767BA6D3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -840,25 +1237,13 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$1,Resultados!$I$1:$J$1,Resultados!$L$1:$N$1)</c:f>
+              <c:f>Resultados!$M$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>createSmartcard</c:v>
+                  <c:v>createPresentationToken</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>issuanceProtocolStepUi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>issuanceProtocolStep</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>createPresentationToken</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>createPresentationTokenUi</c:v>
                 </c:pt>
               </c:strCache>
@@ -873,32 +1258,49 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Resultados!$G$4,Resultados!$I$4:$J$4,Resultados!$L$4:$N$4)</c:f>
+              <c:f>Resultados!$M$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19191.065702599997</c:v>
+                  <c:v>14836.328543199999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2818.6435031999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19307.442511999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14354.2365376</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14836.328543199999</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>18003.754793599997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Resultados!$I$4</c15:sqref>
+                  <c15:dLbl>
+                    <c:idx val="-1"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="2.0833132054811792E-3"/>
+                        <c:y val="-2.9055690072639286E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:dLblPos val="outEnd"/>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="1"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="0"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst>
+                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{00000003-BCEA-4451-984E-3DEB767BA6D3}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c15:dLbl>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCEA-4451-984E-3DEB767BA6D3}"/>
             </c:ext>
@@ -1096,7 +1498,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1747,7 +2149,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2250,7 +2652,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4877,16 +5279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4989,6 +5391,57 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name=" "/>
+    <tableColumn id="2" name="storeCredentialSpecification"/>
+    <tableColumn id="3" name="storeSystemParameters"/>
+    <tableColumn id="4" name="storeRevocationAuthorityParameters"/>
+    <tableColumn id="5" name="storeInspectorPublicKey"/>
+    <tableColumn id="6" name="storeIssuerParameters"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B7" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name=" " dataDxfId="12"/>
+    <tableColumn id="2" name="createSmartcard"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name=" " dataDxfId="8"/>
+    <tableColumn id="2" name="issuanceProtocolStep" dataDxfId="7"/>
+    <tableColumn id="3" name="issuanceProtocolStepUi" dataDxfId="6"/>
+    <tableColumn id="4" name="issuanceProtocolStep " dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name=" " dataDxfId="2"/>
+    <tableColumn id="2" name="createPresentationToken" dataDxfId="1"/>
+    <tableColumn id="3" name="createPresentationTokenUi" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5294,25 +5747,25 @@
       <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6171875" customWidth="1"/>
+    <col min="3" max="3" width="19.6171875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6171875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.76171875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" customWidth="1"/>
+    <col min="11" max="11" width="20.37890625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.25" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="20.234375" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5400,7 +5853,7 @@
         <v>304421882</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5444,7 +5897,7 @@
         <v>286753866</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5488,7 +5941,7 @@
         <v>314072622</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5532,7 +5985,7 @@
         <v>273973621</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5576,7 +6029,7 @@
         <v>329079350</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5633,7 +6086,7 @@
         <v>301660268.19999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5707,25 +6160,25 @@
       <selection activeCell="B9" sqref="B9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6171875" customWidth="1"/>
+    <col min="3" max="3" width="19.6171875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6171875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.76171875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" customWidth="1"/>
+    <col min="11" max="11" width="20.37890625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.25" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="20.234375" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5769,7 +6222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5813,7 +6266,7 @@
         <v>12665498317</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5857,7 +6310,7 @@
         <v>13162554802</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5901,7 +6354,7 @@
         <v>11894591135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5945,7 +6398,7 @@
         <v>13424657153</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5989,7 +6442,7 @@
         <v>11381697295</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6046,7 +6499,7 @@
         <v>12505799740.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6120,25 +6573,25 @@
       <selection activeCell="B9" sqref="B9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6171875" customWidth="1"/>
+    <col min="3" max="3" width="19.6171875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6171875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.76171875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" customWidth="1"/>
+    <col min="11" max="11" width="20.37890625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.25" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="20.234375" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6226,7 +6679,7 @@
         <v>18089594254</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6270,7 +6723,7 @@
         <v>18250464495</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6314,7 +6767,7 @@
         <v>18148398497</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6358,7 +6811,7 @@
         <v>17102239760</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6402,7 +6855,7 @@
         <v>18428076962</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6459,7 +6912,7 @@
         <v>18003754793.599998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6533,12 +6986,12 @@
       <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="6">
         <v>8.8680000000000003</v>
       </c>
@@ -6567,7 +7020,7 @@
         <v>8.2439999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <f>AVERAGE(A1:I1)</f>
         <v>8.5111111111111111</v>
@@ -6576,7 +7029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="C5">
         <f>A7/A3</f>
@@ -6586,7 +7039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="C6">
         <f>A3/A7</f>
@@ -6603,7 +7056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>606000</v>
       </c>
@@ -6617,7 +7070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="L8">
         <v>1</v>
@@ -6629,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="L9">
         <v>2</v>
@@ -6641,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L10">
         <v>3</v>
       </c>
@@ -6652,7 +7105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L11">
         <v>4</v>
       </c>
@@ -6663,7 +7116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L12">
         <v>5</v>
       </c>
@@ -6674,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L13">
         <v>6</v>
       </c>
@@ -6685,7 +7138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>103*2</f>
         <v>206</v>
@@ -6710,7 +7163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L15">
         <v>8</v>
       </c>
@@ -6721,7 +7174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L16">
         <v>9</v>
       </c>
@@ -6732,7 +7185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="L17">
         <v>10</v>
       </c>
@@ -6743,7 +7196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -6757,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -6774,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -6800,7 +7253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21">
         <f>SUM(D20:E49)</f>
         <v>1109</v>
@@ -6827,7 +7280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22">
         <f>B21*E6</f>
         <v>15.575614228089476</v>
@@ -6854,7 +7307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -6880,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C24">
         <v>5</v>
       </c>
@@ -6903,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C25">
         <v>6</v>
       </c>
@@ -6926,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C26">
         <v>7</v>
       </c>
@@ -6949,7 +7402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C27">
         <v>8</v>
       </c>
@@ -6972,7 +7425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C28">
         <v>9</v>
       </c>
@@ -6995,7 +7448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C29">
         <v>10</v>
       </c>
@@ -7018,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C30">
         <v>11</v>
       </c>
@@ -7041,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C31">
         <v>12</v>
       </c>
@@ -7064,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C32">
         <v>13</v>
       </c>
@@ -7087,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33">
         <v>14</v>
       </c>
@@ -7110,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34">
         <v>15</v>
       </c>
@@ -7133,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35">
         <v>16</v>
       </c>
@@ -7156,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36">
         <v>17</v>
       </c>
@@ -7179,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37">
         <v>18</v>
       </c>
@@ -7202,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38">
         <v>19</v>
       </c>
@@ -7222,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39">
         <v>20</v>
       </c>
@@ -7242,7 +7695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40">
         <v>21</v>
       </c>
@@ -7262,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41">
         <v>22</v>
       </c>
@@ -7282,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42">
         <v>23</v>
       </c>
@@ -7302,7 +7755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43">
         <v>24</v>
       </c>
@@ -7322,7 +7775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44">
         <v>25</v>
       </c>
@@ -7342,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45">
         <v>26</v>
       </c>
@@ -7362,7 +7815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46">
         <v>27</v>
       </c>
@@ -7382,7 +7835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47">
         <v>28</v>
       </c>
@@ -7402,7 +7855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48">
         <v>29</v>
       </c>
@@ -7422,7 +7875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C49">
         <v>30</v>
       </c>
@@ -7442,7 +7895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -7476,7 +7929,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>33</v>
       </c>
@@ -7499,7 +7952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52">
         <f>SUM(D51:E74)</f>
         <v>1623</v>
@@ -7523,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B53">
         <f>B52*E6</f>
         <v>22.794609460946095</v>
@@ -7547,7 +8000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>36</v>
       </c>
@@ -7570,7 +8023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C55">
         <v>36</v>
       </c>
@@ -7590,7 +8043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C56">
         <v>37</v>
       </c>
@@ -7610,7 +8063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C57">
         <v>38</v>
       </c>
@@ -7630,7 +8083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C58">
         <v>39</v>
       </c>
@@ -7650,7 +8103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C59">
         <v>40</v>
       </c>
@@ -7670,7 +8123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C60">
         <v>41</v>
       </c>
@@ -7690,7 +8143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C61">
         <v>42</v>
       </c>
@@ -7710,7 +8163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C62">
         <v>43</v>
       </c>
@@ -7730,7 +8183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C63">
         <v>44</v>
       </c>
@@ -7750,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C64">
         <v>45</v>
       </c>
@@ -7770,7 +8223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C65">
         <v>46</v>
       </c>
@@ -7790,7 +8243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C66">
         <v>47</v>
       </c>
@@ -7810,7 +8263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C67">
         <v>48</v>
       </c>
@@ -7830,7 +8283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C68">
         <v>49</v>
       </c>
@@ -7850,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C69">
         <v>50</v>
       </c>
@@ -7870,7 +8323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C70">
         <v>51</v>
       </c>
@@ -7890,7 +8343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C71">
         <v>52</v>
       </c>
@@ -7910,7 +8363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C72">
         <v>53</v>
       </c>
@@ -7930,7 +8383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C73">
         <v>54</v>
       </c>
@@ -7950,7 +8403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C74">
         <v>55</v>
       </c>
@@ -7970,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>32</v>
       </c>
@@ -7993,7 +8446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B76">
         <f>SUM(D75:E94)</f>
         <v>1541</v>
@@ -8017,7 +8470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B77">
         <f>B76*E6</f>
         <v>21.642940960762743</v>
@@ -8041,7 +8494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>36</v>
       </c>
@@ -8064,7 +8517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C79">
         <v>60</v>
       </c>
@@ -8084,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C80">
         <v>61</v>
       </c>
@@ -8104,7 +8557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C81">
         <v>62</v>
       </c>
@@ -8124,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C82">
         <v>63</v>
       </c>
@@ -8144,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C83">
         <v>64</v>
       </c>
@@ -8164,7 +8617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C84">
         <v>65</v>
       </c>
@@ -8184,7 +8637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C85">
         <v>66</v>
       </c>
@@ -8204,7 +8657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C86">
         <v>67</v>
       </c>
@@ -8224,7 +8677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C87">
         <v>68</v>
       </c>
@@ -8244,7 +8697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C88">
         <v>69</v>
       </c>
@@ -8264,7 +8717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C89">
         <v>70</v>
       </c>
@@ -8284,7 +8737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C90">
         <v>71</v>
       </c>
@@ -8304,7 +8757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C91">
         <v>72</v>
       </c>
@@ -8324,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C92">
         <v>73</v>
       </c>
@@ -8344,7 +8797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C93">
         <v>74</v>
       </c>
@@ -8364,7 +8817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C94">
         <v>75</v>
       </c>
@@ -8384,7 +8837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>34</v>
       </c>
@@ -8407,7 +8860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B96">
         <f>SUM(D95:E113)</f>
         <v>1475</v>
@@ -8431,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B97">
         <f>B96*E6</f>
         <v>20.715988265493216</v>
@@ -8455,7 +8908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>36</v>
       </c>
@@ -8478,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C99">
         <v>80</v>
       </c>
@@ -8498,7 +8951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C100">
         <v>81</v>
       </c>
@@ -8518,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C101">
         <v>82</v>
       </c>
@@ -8538,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C102">
         <v>83</v>
       </c>
@@ -8558,7 +9011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C103">
         <v>84</v>
       </c>
@@ -8578,7 +9031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C104">
         <v>85</v>
       </c>
@@ -8598,7 +9051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C105">
         <v>86</v>
       </c>
@@ -8618,7 +9071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C106">
         <v>87</v>
       </c>
@@ -8638,7 +9091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C107">
         <v>88</v>
       </c>
@@ -8658,7 +9111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C108">
         <v>89</v>
       </c>
@@ -8678,7 +9131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C109">
         <v>90</v>
       </c>
@@ -8698,7 +9151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C110">
         <v>91</v>
       </c>
@@ -8718,7 +9171,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C111">
         <v>92</v>
       </c>
@@ -8729,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C112">
         <v>93</v>
       </c>
@@ -8740,7 +9193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C113">
         <v>94</v>
       </c>
@@ -8751,7 +9204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>35</v>
       </c>
@@ -8765,7 +9218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B115">
         <f>SUM(D114:E122)</f>
         <v>464</v>
@@ -8780,7 +9233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B116">
         <f>B115*E6</f>
         <v>6.5167583425009168</v>
@@ -8795,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>36</v>
       </c>
@@ -8809,7 +9262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C118">
         <v>99</v>
       </c>
@@ -8820,7 +9273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C119">
         <v>100</v>
       </c>
@@ -8831,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C120">
         <v>101</v>
       </c>
@@ -8842,7 +9295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C121">
         <v>102</v>
       </c>
@@ -8853,7 +9306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C122">
         <v>103</v>
       </c>
@@ -8873,428 +9326,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="6" width="10.6640625" style="10"/>
+    <col min="7" max="7" width="12.47265625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="12">
         <v>139.22744940000001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12">
         <v>222.07548019999999</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12">
         <v>5.0480727999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="12">
         <v>5.6186369999999997</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="12">
         <v>5.7513183999999997</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="12">
         <v>131.738517</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <v>1.7811400000000002E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="12">
         <v>298.78947260000001</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="12">
         <v>377.83841339999998</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="12">
         <v>1.518E-3</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="12">
         <v>916.31667099999993</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="12">
         <v>209.7799436</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="12">
         <v>301.66026819999996</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>1395.1235994000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>2278.8520548000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>35.380456799999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="12">
         <v>33.761543399999994</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="12">
         <v>56.101316799999992</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="12">
         <v>2154.8351681999998</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="12">
         <v>0.12953000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="12">
         <v>2327.1840154000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="12">
         <v>6905.9254949999995</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="12">
         <v>1.45726E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="12">
         <v>2150.8993295999999</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="12">
         <v>1993.1077575999998</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="12">
         <v>12505.7997404</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>1412.2921615999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="12">
         <v>2244.5370149999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>38.613114399999994</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="12">
         <v>33.585100799999992</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="12">
         <v>44.773204999999997</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="12">
         <v>19191.065702599997</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>0.11161360000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="12">
         <v>2818.6435031999995</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="12">
         <v>19307.442511999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <v>1.1812399999999999E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="12">
         <v>14354.2365376</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="12">
         <v>14836.328543199999</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="12">
         <v>18003.754793599997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <f>B3/B2</f>
         <v>10.020463675893497</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <f t="shared" ref="C5:N5" si="0">C3/C2</f>
         <v>10.261610389168936</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>7.0087057381581337</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>6.0088493704078045</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>9.7545141649608542</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>16.35691077500136</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>7.2723087460839686</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
         <v>7.7887082002901868</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
         <v>18.277457373528129</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>9.5998682476943351</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="12">
         <f t="shared" si="0"/>
         <v>2.3473318751831376</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="12">
         <f t="shared" si="0"/>
         <v>9.5009452447960321</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="12">
         <f t="shared" si="0"/>
         <v>41.456569057044952</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <f>B4/B3</f>
         <v>1.0123061227029515</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <f t="shared" ref="C6:N6" si="1">C4/C3</f>
         <v>0.98494196245529775</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>1.0913684528798959</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>0.99477385859083678</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>0.79807761303741809</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>8.9060481218296097</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>0.86168146375357058</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>1.2111820485822331</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>2.7957791502353877</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="12">
         <f t="shared" si="1"/>
         <v>0.81058973690350378</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>6.6735975691942029</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>7.4438165656758875</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="12">
         <f t="shared" si="1"/>
         <v>1.4396324239415772</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <f>B4/B2</f>
         <v>10.143776731429512</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12">
         <f t="shared" ref="C7:N7" si="2">C4/C2</f>
         <v>10.107090674659723</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <f t="shared" si="2"/>
         <v>7.6490803381440919</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="12">
         <f t="shared" si="2"/>
         <v>5.977446273891692</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>7.7848593811116418</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="12">
         <f t="shared" si="2"/>
         <v>145.67543448663534</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>6.2664136451935279</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
         <v>9.4335435538367065</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="12">
         <f t="shared" si="2"/>
         <v>51.099734244225999</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="12">
         <f t="shared" si="2"/>
         <v>7.7815546772068505</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="12">
         <f t="shared" si="2"/>
         <v>15.665148296314257</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>70.723293602792253</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="12">
         <f t="shared" si="2"/>
         <v>59.682220999895009</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>15.575614228089476</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <v>0.46347634763476353</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="12">
         <v>22.794609460946095</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12">
         <v>21.642940960762743</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="12">
         <v>20.715988265493216</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="12">
         <v>6.5167583425009168</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G10" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G10" s="12">
         <f>G4-G9</f>
         <v>19175.490088371909</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
         <f t="shared" ref="I10:N10" si="3">I4-I9</f>
         <v>2818.1800268523648</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="12">
         <f t="shared" si="3"/>
         <v>19284.647902539051</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12">
         <f t="shared" si="3"/>
         <v>14332.593596639237</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
         <v>14815.612554934507</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="12">
         <f t="shared" si="3"/>
         <v>17997.238035257495</v>
       </c>
@@ -9310,125 +9765,126 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
+    <col min="2" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>139.22744940000001</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>222.07548019999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>5.0480727999999999</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>5.6186369999999997</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="19">
         <v>5.7513183999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>1395.1235994000001</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>2278.8520548000001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>35.380456799999997</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>33.761543399999994</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="19">
         <v>56.101316799999992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>1412.2921615999999</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>2244.5370149999999</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>38.613114399999994</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>33.585100799999992</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="22">
         <v>44.773204999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:6" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="24">
         <f>B3/B2</f>
         <v>10.020463675893497</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="24">
         <f t="shared" ref="C5:F5" si="0">C3/C2</f>
         <v>10.261610389168936</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="24">
         <f t="shared" si="0"/>
         <v>7.0087057381581337</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>6.0088493704078045</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>9.7545141649608542</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9437,78 +9893,322 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="18.37890625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>0.131738517</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>2.1548351682</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>19.1910657026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:2" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="18">
         <f t="shared" ref="B5:B6" si="0">B3/B2</f>
         <v>16.35691077500136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="19">
         <f t="shared" si="0"/>
         <v>8.9060481218296097</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="22">
         <f t="shared" ref="B7" si="1">B4/B2</f>
         <v>145.67543448663537</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.53" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.76171875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12">
+        <v>298.78947260000001</v>
+      </c>
+      <c r="C2" s="12">
+        <v>377.83841339999998</v>
+      </c>
+      <c r="D2" s="12">
+        <v>916.31667099999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2327.1840154000001</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6905.9254949999995</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2150.8993295999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2818.6435031999995</v>
+      </c>
+      <c r="C4" s="29">
+        <v>19307.442511999998</v>
+      </c>
+      <c r="D4" s="29">
+        <v>14354.2365376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" ref="B5:D6" si="0">B3/B2</f>
+        <v>7.7887082002901868</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>18.277457373528129</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.3473318751831376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2111820485822331</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7957791502353877</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6735975691942029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" ref="B7:D7" si="1">B4/B2</f>
+        <v>9.4335435538367065</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="1"/>
+        <v>51.099734244225999</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>15.665148296314257</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.046875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="24.47265625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31">
+        <v>209.7799436</v>
+      </c>
+      <c r="C2" s="31">
+        <v>301.66026819999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1993.1077575999998</v>
+      </c>
+      <c r="C3" s="31">
+        <v>12505.7997404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="33">
+        <v>14836.328543199999</v>
+      </c>
+      <c r="C4" s="33">
+        <v>18003.754793599997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="31">
+        <f t="shared" ref="B5:C6" si="0">B3/B2</f>
+        <v>9.5009452447960321</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" si="0"/>
+        <v>41.456569057044952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4438165656758875</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4396324239415772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="31">
+        <f t="shared" ref="B7:C7" si="1">B4/B2</f>
+        <v>70.723293602792253</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="1"/>
+        <v>59.682220999895009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Doc/benchmarks/Benchmark.xlsx
+++ b/Doc/benchmarks/Benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canov\Documents\GitHub\p2abc_iot_toolkit\Doc\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JL\Documents\GitHub\p2abc_iot_toolkit\Doc\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,18 +16,19 @@
     <sheet name="RPi3" sheetId="2" r:id="rId2"/>
     <sheet name="Omega2" sheetId="3" r:id="rId3"/>
     <sheet name="Net" sheetId="5" r:id="rId4"/>
-    <sheet name="Resultados" sheetId="4" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja4" sheetId="9" r:id="rId9"/>
+    <sheet name="RAM" sheetId="10" r:id="rId5"/>
+    <sheet name="Resultados" sheetId="4" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId8"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId9"/>
+    <sheet name="Hoja4" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>Test nº</t>
   </si>
@@ -170,22 +171,13 @@
     <t>Omega2 (s)</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">issuanceProtocolStep </t>
+  </si>
+  <si>
+    <t>kbytes</t>
   </si>
 </sst>
 </file>
@@ -591,53 +583,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -713,16 +658,66 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -749,22 +744,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -772,19 +751,32 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1294,7 +1286,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000003-BCEA-4451-984E-3DEB767BA6D3}"/>
+                        <c16:uniqueId val="{00000000-E451-4688-A44B-A82F4705EB73}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -5394,7 +5386,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name=" "/>
@@ -5409,10 +5401,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B7" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B7" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name=" " dataDxfId="12"/>
+    <tableColumn id="1" name=" " dataDxfId="9"/>
     <tableColumn id="2" name="createSmartcard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5420,13 +5412,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name=" " dataDxfId="8"/>
-    <tableColumn id="2" name="issuanceProtocolStep" dataDxfId="7"/>
-    <tableColumn id="3" name="issuanceProtocolStepUi" dataDxfId="6"/>
-    <tableColumn id="4" name="issuanceProtocolStep " dataDxfId="5"/>
+    <tableColumn id="1" name=" " dataDxfId="6"/>
+    <tableColumn id="2" name="issuanceProtocolStep" dataDxfId="5"/>
+    <tableColumn id="3" name="issuanceProtocolStepUi" dataDxfId="4"/>
+    <tableColumn id="4" name="issuanceProtocolStep " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5747,25 +5739,25 @@
       <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6171875" customWidth="1"/>
-    <col min="3" max="3" width="19.6171875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.6171875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.47265625" customWidth="1"/>
-    <col min="11" max="11" width="20.37890625" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.234375" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5853,7 +5845,7 @@
         <v>304421882</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5897,7 +5889,7 @@
         <v>286753866</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5941,7 +5933,7 @@
         <v>314072622</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5985,7 +5977,7 @@
         <v>273973621</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6029,7 +6021,7 @@
         <v>329079350</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6086,7 +6078,7 @@
         <v>301660268.19999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6149,6 +6141,113 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31">
+        <v>209.7799436</v>
+      </c>
+      <c r="C2" s="31">
+        <v>301.66026819999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1993.1077575999998</v>
+      </c>
+      <c r="C3" s="31">
+        <v>12505.7997404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="33">
+        <v>14836.328543199999</v>
+      </c>
+      <c r="C4" s="33">
+        <v>18003.754793599997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="31">
+        <f t="shared" ref="B5:C6" si="0">B3/B2</f>
+        <v>9.5009452447960321</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" si="0"/>
+        <v>41.456569057044952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4438165656758875</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4396324239415772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="31">
+        <f t="shared" ref="B7:C7" si="1">B4/B2</f>
+        <v>70.723293602792253</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="1"/>
+        <v>59.682220999895009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6160,25 +6259,25 @@
       <selection activeCell="B9" sqref="B9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6171875" customWidth="1"/>
-    <col min="3" max="3" width="19.6171875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.6171875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.47265625" customWidth="1"/>
-    <col min="11" max="11" width="20.37890625" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.234375" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6222,7 +6321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6266,7 +6365,7 @@
         <v>12665498317</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6310,7 +6409,7 @@
         <v>13162554802</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6354,7 +6453,7 @@
         <v>11894591135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6398,7 +6497,7 @@
         <v>13424657153</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6442,7 +6541,7 @@
         <v>11381697295</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6598,7 @@
         <v>12505799740.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6573,25 +6672,25 @@
       <selection activeCell="B9" sqref="B9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6171875" customWidth="1"/>
-    <col min="3" max="3" width="19.6171875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.6171875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.76171875" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19.47265625" customWidth="1"/>
-    <col min="11" max="11" width="20.37890625" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.234375" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6635,7 +6734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6679,7 +6778,7 @@
         <v>18089594254</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6723,7 +6822,7 @@
         <v>18250464495</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6767,7 +6866,7 @@
         <v>18148398497</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6811,7 +6910,7 @@
         <v>17102239760</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6855,7 +6954,7 @@
         <v>18428076962</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +7011,7 @@
         <v>18003754793.599998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6982,16 +7081,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
         <v>8.8680000000000003</v>
       </c>
@@ -7020,7 +7119,7 @@
         <v>8.2439999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f>AVERAGE(A1:I1)</f>
         <v>8.5111111111111111</v>
@@ -7029,7 +7128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="C5">
         <f>A7/A3</f>
@@ -7039,7 +7138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="C6">
         <f>A3/A7</f>
@@ -7056,7 +7155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>606000</v>
       </c>
@@ -7070,7 +7169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="L8">
         <v>1</v>
@@ -7082,7 +7181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="L9">
         <v>2</v>
@@ -7094,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L10">
         <v>3</v>
       </c>
@@ -7105,7 +7204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L11">
         <v>4</v>
       </c>
@@ -7116,7 +7215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L12">
         <v>5</v>
       </c>
@@ -7127,7 +7226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L13">
         <v>6</v>
       </c>
@@ -7138,7 +7237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>103*2</f>
         <v>206</v>
@@ -7163,7 +7262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L15">
         <v>8</v>
       </c>
@@ -7174,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L16">
         <v>9</v>
       </c>
@@ -7185,7 +7284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L17">
         <v>10</v>
       </c>
@@ -7196,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -7210,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -7227,7 +7326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -7253,7 +7352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(D20:E49)</f>
         <v>1109</v>
@@ -7280,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>B21*E6</f>
         <v>15.575614228089476</v>
@@ -7307,7 +7406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -7333,7 +7432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>5</v>
       </c>
@@ -7356,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>6</v>
       </c>
@@ -7379,7 +7478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>7</v>
       </c>
@@ -7402,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>8</v>
       </c>
@@ -7425,7 +7524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>9</v>
       </c>
@@ -7448,7 +7547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>10</v>
       </c>
@@ -7471,7 +7570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>11</v>
       </c>
@@ -7494,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>12</v>
       </c>
@@ -7517,7 +7616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>13</v>
       </c>
@@ -7540,7 +7639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>14</v>
       </c>
@@ -7563,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>15</v>
       </c>
@@ -7586,7 +7685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>16</v>
       </c>
@@ -7609,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>17</v>
       </c>
@@ -7632,7 +7731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>18</v>
       </c>
@@ -7655,7 +7754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>19</v>
       </c>
@@ -7675,7 +7774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>20</v>
       </c>
@@ -7695,7 +7794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>21</v>
       </c>
@@ -7715,7 +7814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>22</v>
       </c>
@@ -7735,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>23</v>
       </c>
@@ -7755,7 +7854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>24</v>
       </c>
@@ -7775,7 +7874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>25</v>
       </c>
@@ -7795,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>26</v>
       </c>
@@ -7815,7 +7914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>27</v>
       </c>
@@ -7835,7 +7934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>28</v>
       </c>
@@ -7855,7 +7954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>29</v>
       </c>
@@ -7875,7 +7974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>30</v>
       </c>
@@ -7895,7 +7994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -7929,7 +8028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>33</v>
       </c>
@@ -7952,7 +8051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52">
         <f>SUM(D51:E74)</f>
         <v>1623</v>
@@ -7976,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53">
         <f>B52*E6</f>
         <v>22.794609460946095</v>
@@ -7990,6 +8089,10 @@
       <c r="E53">
         <v>4</v>
       </c>
+      <c r="G53">
+        <f>F50+B52+B76</f>
+        <v>3197</v>
+      </c>
       <c r="L53">
         <v>46</v>
       </c>
@@ -8000,7 +8103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>36</v>
       </c>
@@ -8013,6 +8116,10 @@
       <c r="E54">
         <v>4</v>
       </c>
+      <c r="G54">
+        <f>G53*E6</f>
+        <v>44.901026769343602</v>
+      </c>
       <c r="L54">
         <v>47</v>
       </c>
@@ -8023,7 +8130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>36</v>
       </c>
@@ -8043,7 +8150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>37</v>
       </c>
@@ -8063,7 +8170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>38</v>
       </c>
@@ -8083,7 +8190,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>39</v>
       </c>
@@ -8103,7 +8210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>40</v>
       </c>
@@ -8123,7 +8230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>41</v>
       </c>
@@ -8143,7 +8250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>42</v>
       </c>
@@ -8163,7 +8270,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>43</v>
       </c>
@@ -8183,7 +8290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>44</v>
       </c>
@@ -8203,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>45</v>
       </c>
@@ -8223,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>46</v>
       </c>
@@ -8243,7 +8350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>47</v>
       </c>
@@ -8263,7 +8370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>48</v>
       </c>
@@ -8283,7 +8390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>49</v>
       </c>
@@ -8303,7 +8410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>50</v>
       </c>
@@ -8323,7 +8430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>51</v>
       </c>
@@ -8343,7 +8450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>52</v>
       </c>
@@ -8363,7 +8470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>53</v>
       </c>
@@ -8383,7 +8490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>54</v>
       </c>
@@ -8403,7 +8510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>55</v>
       </c>
@@ -8423,7 +8530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>32</v>
       </c>
@@ -8446,7 +8553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76">
         <f>SUM(D75:E94)</f>
         <v>1541</v>
@@ -8470,7 +8577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77">
         <f>B76*E6</f>
         <v>21.642940960762743</v>
@@ -8494,7 +8601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>36</v>
       </c>
@@ -8517,7 +8624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>60</v>
       </c>
@@ -8537,7 +8644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>61</v>
       </c>
@@ -8557,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>62</v>
       </c>
@@ -8577,7 +8684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>63</v>
       </c>
@@ -8597,7 +8704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>64</v>
       </c>
@@ -8617,7 +8724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>65</v>
       </c>
@@ -8637,7 +8744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>66</v>
       </c>
@@ -8657,7 +8764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>67</v>
       </c>
@@ -8677,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>68</v>
       </c>
@@ -8697,7 +8804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>69</v>
       </c>
@@ -8717,7 +8824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>70</v>
       </c>
@@ -8737,7 +8844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>71</v>
       </c>
@@ -8757,7 +8864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>72</v>
       </c>
@@ -8777,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>73</v>
       </c>
@@ -8797,7 +8904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>74</v>
       </c>
@@ -8817,7 +8924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>75</v>
       </c>
@@ -8837,7 +8944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>34</v>
       </c>
@@ -8860,7 +8967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96">
         <f>SUM(D95:E113)</f>
         <v>1475</v>
@@ -8884,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97">
         <f>B96*E6</f>
         <v>20.715988265493216</v>
@@ -8908,7 +9015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>36</v>
       </c>
@@ -8931,7 +9038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>80</v>
       </c>
@@ -8951,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>81</v>
       </c>
@@ -8971,7 +9078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>82</v>
       </c>
@@ -8991,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>83</v>
       </c>
@@ -9011,7 +9118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>84</v>
       </c>
@@ -9031,7 +9138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C104">
         <v>85</v>
       </c>
@@ -9051,7 +9158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C105">
         <v>86</v>
       </c>
@@ -9071,7 +9178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>87</v>
       </c>
@@ -9091,7 +9198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>88</v>
       </c>
@@ -9111,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>89</v>
       </c>
@@ -9131,7 +9238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>90</v>
       </c>
@@ -9151,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>91</v>
       </c>
@@ -9171,7 +9278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>92</v>
       </c>
@@ -9182,7 +9289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>93</v>
       </c>
@@ -9193,7 +9300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>94</v>
       </c>
@@ -9203,8 +9310,12 @@
       <c r="E113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G113">
+        <f>B96+B115</f>
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>35</v>
       </c>
@@ -9218,7 +9329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115">
         <f>SUM(D114:E122)</f>
         <v>464</v>
@@ -9233,7 +9344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116">
         <f>B115*E6</f>
         <v>6.5167583425009168</v>
@@ -9248,7 +9359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>36</v>
       </c>
@@ -9262,7 +9373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C118">
         <v>99</v>
       </c>
@@ -9273,7 +9384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>100</v>
       </c>
@@ -9284,7 +9395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>101</v>
       </c>
@@ -9295,7 +9406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>102</v>
       </c>
@@ -9306,7 +9417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C122">
         <v>103</v>
       </c>
@@ -9324,20 +9435,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7104</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(A1:A5)</f>
+        <v>6569.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.6640625" style="10"/>
-    <col min="7" max="7" width="12.47265625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="6" width="10.625" style="10"/>
+    <col min="7" max="7" width="12.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
@@ -9378,7 +9536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -9422,7 +9580,7 @@
         <v>301.66026819999996</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -9466,7 +9624,7 @@
         <v>12505.7997404</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -9510,7 +9668,7 @@
         <v>18003.754793599997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -9567,7 +9725,7 @@
         <v>41.456569057044952</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -9624,7 +9782,7 @@
         <v>1.4396324239415772</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -9681,7 +9839,7 @@
         <v>59.682220999895009</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -9696,7 +9854,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
@@ -9726,7 +9884,7 @@
         <v>6.5167583425009168</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G10" s="12">
         <f>G4-G9</f>
         <v>19175.490088371909</v>
@@ -9760,7 +9918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -9768,15 +9926,15 @@
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.234375" customWidth="1"/>
-    <col min="2" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>1</v>
@@ -9794,7 +9952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -9814,7 +9972,7 @@
         <v>5.7513183999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -9834,7 +9992,7 @@
         <v>56.101316799999992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
@@ -9854,7 +10012,7 @@
         <v>44.773204999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -9888,7 +10046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -9896,21 +10054,21 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.37890625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
@@ -9918,7 +10076,7 @@
         <v>0.131738517</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -9926,7 +10084,7 @@
         <v>2.1548351682</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -9934,7 +10092,7 @@
         <v>19.1910657026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -9943,7 +10101,7 @@
         <v>16.35691077500136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -9952,7 +10110,7 @@
         <v>8.9060481218296097</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9961,7 +10119,7 @@
         <v>145.67543448663537</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="3"/>
     </row>
   </sheetData>
@@ -9974,7 +10132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -9982,17 +10140,17 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.76171875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>8</v>
@@ -10001,10 +10159,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -10018,7 +10176,7 @@
         <v>916.31667099999993</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -10032,7 +10190,7 @@
         <v>2150.8993295999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
@@ -10046,7 +10204,7 @@
         <v>14354.2365376</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -10063,7 +10221,7 @@
         <v>2.3473318751831376</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -10080,7 +10238,7 @@
         <v>6.6735975691942029</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -10104,111 +10262,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.046875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="24.47265625" style="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="31">
-        <v>209.7799436</v>
-      </c>
-      <c r="C2" s="31">
-        <v>301.66026819999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="31">
-        <v>1993.1077575999998</v>
-      </c>
-      <c r="C3" s="31">
-        <v>12505.7997404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="33">
-        <v>14836.328543199999</v>
-      </c>
-      <c r="C4" s="33">
-        <v>18003.754793599997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="31">
-        <f t="shared" ref="B5:C6" si="0">B3/B2</f>
-        <v>9.5009452447960321</v>
-      </c>
-      <c r="C5" s="31">
-        <f t="shared" si="0"/>
-        <v>41.456569057044952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31">
-        <f t="shared" si="0"/>
-        <v>7.4438165656758875</v>
-      </c>
-      <c r="C6" s="31">
-        <f t="shared" si="0"/>
-        <v>1.4396324239415772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="31">
-        <f t="shared" ref="B7:C7" si="1">B4/B2</f>
-        <v>70.723293602792253</v>
-      </c>
-      <c r="C7" s="31">
-        <f t="shared" si="1"/>
-        <v>59.682220999895009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>